--- a/Data/Raw/full_dictionary.xlsx
+++ b/Data/Raw/full_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabian/Projects/NeurIPS/AI system/E-star/Data/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD55F585-FDB9-3145-AE34-ECC3A566F13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B93A0-6BB7-8F4D-986B-F348573EDB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F8A35DD4-6571-414F-92B3-402616DB2F12}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FM''s'!$D$1:$D$220</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Total!$G$1:$G$451</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Total!$G$1:$G$450</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">Condensed_The_Book_of_Human_Emo!$A$1:$C$469</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'The Book of Human Emotions raw'!$A$1:$C$1790</definedName>
   </definedNames>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12176" uniqueCount="3421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12170" uniqueCount="3420">
   <si>
     <t>Emotion</t>
   </si>
@@ -10302,9 +10302,6 @@
   </si>
   <si>
     <t>Mamihlapinatapai is a word from the Yaghan language of Tierra del Fuego that describes a mutual, unspoken understanding or glance between two people, each hoping the other will initiate something. Mamihlapinatapai often occurs in moments of potential connection, where both parties sense the possibility of something meaningful but hesitate to make the first move.</t>
-  </si>
-  <si>
-    <t>Mauerbauertraurigkeit is a German compound word that describes the inexplicable feeling of sadness caused by not being able to express good intentions to someone. It captures the emotional frustration and melancholy that arises when one desires to reach out and offer kindness or support but is hindered by circumstances or personal limitations.</t>
   </si>
   <si>
     <t>Rubatosis is an English term derived from Latin, describing the unsettling awareness of one's own heartbeat. This emotion can evoke anxiety, nervousness, or acute self-consciousness, especially in moments of stress, fear, or intense emotion.</t>
@@ -10953,13 +10950,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6299021A-12BB-9548-85CA-E3645404A9C9}">
-  <dimension ref="A1:J451"/>
+  <dimension ref="A1:J450"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="F262" sqref="F262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -16305,15 +16302,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>53</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>3415</v>
+        <v>1375</v>
+      </c>
+      <c r="B263" t="s">
+        <v>3314</v>
       </c>
       <c r="C263" t="s">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>356</v>
@@ -16321,16 +16318,16 @@
       <c r="F263" t="s">
         <v>371</v>
       </c>
-      <c r="G263" t="s">
-        <v>425</v>
+      <c r="G263" s="12" t="s">
+        <v>3348</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1375</v>
+        <v>1126</v>
       </c>
       <c r="B264" t="s">
-        <v>3314</v>
+        <v>3316</v>
       </c>
       <c r="C264" t="s">
         <v>486</v>
@@ -16342,45 +16339,45 @@
         <v>371</v>
       </c>
       <c r="G264" s="12" t="s">
-        <v>3348</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B265" t="s">
-        <v>3316</v>
+        <v>29</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>3372</v>
       </c>
       <c r="C265" t="s">
-        <v>486</v>
+        <v>307</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>356</v>
       </c>
+      <c r="E265" t="s">
+        <v>363</v>
+      </c>
       <c r="F265" t="s">
         <v>371</v>
       </c>
-      <c r="G265" s="12" t="s">
-        <v>408</v>
+      <c r="G265" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3372</v>
+        <v>434</v>
       </c>
       <c r="C266" t="s">
-        <v>307</v>
+        <v>5</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="E266" t="s">
-        <v>363</v>
-      </c>
       <c r="F266" t="s">
         <v>371</v>
       </c>
@@ -16388,15 +16385,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>141</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>434</v>
+        <v>1388</v>
+      </c>
+      <c r="B267" t="s">
+        <v>3111</v>
       </c>
       <c r="C267" t="s">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>356</v>
@@ -16404,16 +16401,16 @@
       <c r="F267" t="s">
         <v>371</v>
       </c>
-      <c r="G267" t="s">
-        <v>410</v>
+      <c r="G267" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1388</v>
+        <v>677</v>
       </c>
       <c r="B268" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="C268" t="s">
         <v>486</v>
@@ -16430,10 +16427,10 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>677</v>
+        <v>1368</v>
       </c>
       <c r="B269" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="C269" t="s">
         <v>486</v>
@@ -16450,10 +16447,10 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1368</v>
+        <v>807</v>
       </c>
       <c r="B270" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="C270" t="s">
         <v>486</v>
@@ -16468,15 +16465,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>807</v>
-      </c>
-      <c r="B271" t="s">
-        <v>3114</v>
+        <v>419</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="C271" t="s">
-        <v>486</v>
+        <v>380</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>356</v>
@@ -16484,19 +16481,25 @@
       <c r="F271" t="s">
         <v>371</v>
       </c>
-      <c r="G271" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="G271" t="s">
+        <v>418</v>
+      </c>
+      <c r="H271" t="s">
+        <v>421</v>
+      </c>
+      <c r="I271" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>419</v>
+        <v>17</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>420</v>
+        <v>3373</v>
       </c>
       <c r="C272" t="s">
-        <v>380</v>
+        <v>5</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>356</v>
@@ -16505,24 +16508,18 @@
         <v>371</v>
       </c>
       <c r="G272" t="s">
-        <v>418</v>
-      </c>
-      <c r="H272" t="s">
-        <v>421</v>
-      </c>
-      <c r="I272" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>17</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>3373</v>
+        <v>1402</v>
+      </c>
+      <c r="B273" t="s">
+        <v>3119</v>
       </c>
       <c r="C273" t="s">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="D273" s="4" t="s">
         <v>356</v>
@@ -16530,16 +16527,16 @@
       <c r="F273" t="s">
         <v>371</v>
       </c>
-      <c r="G273" t="s">
-        <v>412</v>
+      <c r="G273" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1402</v>
+        <v>1410</v>
       </c>
       <c r="B274" t="s">
-        <v>3119</v>
+        <v>3319</v>
       </c>
       <c r="C274" t="s">
         <v>486</v>
@@ -16556,10 +16553,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1410</v>
+        <v>1370</v>
       </c>
       <c r="B275" t="s">
-        <v>3319</v>
+        <v>3120</v>
       </c>
       <c r="C275" t="s">
         <v>486</v>
@@ -16574,15 +16571,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B276" t="s">
-        <v>3120</v>
+        <v>60</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="C276" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>356</v>
@@ -16590,19 +16587,19 @@
       <c r="F276" t="s">
         <v>371</v>
       </c>
-      <c r="G276" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G276" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>60</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>436</v>
+        <v>1423</v>
+      </c>
+      <c r="B277" t="s">
+        <v>3123</v>
       </c>
       <c r="C277" t="s">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>356</v>
@@ -16610,62 +16607,62 @@
       <c r="F277" t="s">
         <v>371</v>
       </c>
-      <c r="G277" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G277" s="12" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B278" t="s">
-        <v>3123</v>
+        <v>228</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="C278" t="s">
-        <v>486</v>
+        <v>152</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
+      </c>
+      <c r="E278" t="s">
+        <v>365</v>
       </c>
       <c r="F278" t="s">
-        <v>371</v>
-      </c>
-      <c r="G278" s="12" t="s">
-        <v>3353</v>
+        <v>372</v>
+      </c>
+      <c r="G278" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>229</v>
+        <v>438</v>
       </c>
       <c r="C279" t="s">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E279" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F279" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G279" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>64</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>438</v>
+        <v>594</v>
+      </c>
+      <c r="B280" t="s">
+        <v>3124</v>
       </c>
       <c r="C280" t="s">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>356</v>
@@ -16673,16 +16670,16 @@
       <c r="F280" t="s">
         <v>371</v>
       </c>
-      <c r="G280" t="s">
-        <v>412</v>
+      <c r="G280" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>594</v>
+        <v>1844</v>
       </c>
       <c r="B281" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="C281" t="s">
         <v>486</v>
@@ -16699,10 +16696,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1844</v>
+        <v>1426</v>
       </c>
       <c r="B282" t="s">
-        <v>3125</v>
+        <v>3383</v>
       </c>
       <c r="C282" t="s">
         <v>486</v>
@@ -16714,15 +16711,15 @@
         <v>371</v>
       </c>
       <c r="G282" s="12" t="s">
-        <v>408</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1426</v>
+        <v>841</v>
       </c>
       <c r="B283" t="s">
-        <v>3383</v>
+        <v>3127</v>
       </c>
       <c r="C283" t="s">
         <v>486</v>
@@ -16734,18 +16731,18 @@
         <v>371</v>
       </c>
       <c r="G283" s="12" t="s">
-        <v>3384</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>841</v>
-      </c>
-      <c r="B284" t="s">
-        <v>3127</v>
+        <v>94</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>439</v>
       </c>
       <c r="C284" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>356</v>
@@ -16753,19 +16750,19 @@
       <c r="F284" t="s">
         <v>371</v>
       </c>
-      <c r="G284" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="G284" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>94</v>
+        <v>263</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>439</v>
+        <v>264</v>
       </c>
       <c r="C285" t="s">
-        <v>5</v>
+        <v>238</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>356</v>
@@ -16774,18 +16771,18 @@
         <v>371</v>
       </c>
       <c r="G285" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>263</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>264</v>
+        <v>675</v>
+      </c>
+      <c r="B286" t="s">
+        <v>3128</v>
       </c>
       <c r="C286" t="s">
-        <v>238</v>
+        <v>486</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>356</v>
@@ -16793,19 +16790,19 @@
       <c r="F286" t="s">
         <v>371</v>
       </c>
-      <c r="G286" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G286" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>675</v>
-      </c>
-      <c r="B287" t="s">
-        <v>3128</v>
+        <v>21</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="C287" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>356</v>
@@ -16813,23 +16810,26 @@
       <c r="F287" t="s">
         <v>371</v>
       </c>
-      <c r="G287" s="12" t="s">
+      <c r="G287" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>440</v>
+        <v>262</v>
       </c>
       <c r="C288" t="s">
-        <v>5</v>
+        <v>238</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>356</v>
       </c>
+      <c r="E288" t="s">
+        <v>363</v>
+      </c>
       <c r="F288" t="s">
         <v>371</v>
       </c>
@@ -16837,78 +16837,75 @@
         <v>408</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>261</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>262</v>
+        <v>1029</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3133</v>
       </c>
       <c r="C289" t="s">
-        <v>238</v>
+        <v>486</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="E289" t="s">
-        <v>363</v>
-      </c>
       <c r="F289" t="s">
         <v>371</v>
       </c>
-      <c r="G289" t="s">
+      <c r="G289" s="12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B290" t="s">
-        <v>3133</v>
+        <v>232</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="C290" t="s">
-        <v>486</v>
+        <v>152</v>
       </c>
       <c r="D290" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E290" t="s">
+        <v>365</v>
+      </c>
+      <c r="F290" t="s">
+        <v>376</v>
+      </c>
+      <c r="G290" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>835</v>
+      </c>
+      <c r="B291" t="s">
+        <v>3320</v>
+      </c>
+      <c r="C291" t="s">
+        <v>486</v>
+      </c>
+      <c r="D291" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F290" t="s">
+      <c r="F291" t="s">
         <v>371</v>
       </c>
-      <c r="G290" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>232</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C291" t="s">
-        <v>152</v>
-      </c>
-      <c r="D291" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E291" t="s">
-        <v>365</v>
-      </c>
-      <c r="F291" t="s">
-        <v>376</v>
-      </c>
-      <c r="G291" t="s">
+      <c r="G291" s="12" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>835</v>
+        <v>1441</v>
       </c>
       <c r="B292" t="s">
-        <v>3320</v>
+        <v>3134</v>
       </c>
       <c r="C292" t="s">
         <v>486</v>
@@ -16920,18 +16917,18 @@
         <v>371</v>
       </c>
       <c r="G292" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B293" t="s">
-        <v>3134</v>
+        <v>74</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="C293" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>356</v>
@@ -16939,19 +16936,19 @@
       <c r="F293" t="s">
         <v>371</v>
       </c>
-      <c r="G293" s="12" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="G293" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>74</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>441</v>
+        <v>1181</v>
+      </c>
+      <c r="B294" t="s">
+        <v>3135</v>
       </c>
       <c r="C294" t="s">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>356</v>
@@ -16959,16 +16956,16 @@
       <c r="F294" t="s">
         <v>371</v>
       </c>
-      <c r="G294" t="s">
+      <c r="G294" s="12" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1181</v>
+        <v>609</v>
       </c>
       <c r="B295" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
       <c r="C295" t="s">
         <v>486</v>
@@ -16985,10 +16982,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>609</v>
+        <v>927</v>
       </c>
       <c r="B296" t="s">
-        <v>3137</v>
+        <v>3321</v>
       </c>
       <c r="C296" t="s">
         <v>486</v>
@@ -17005,10 +17002,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>927</v>
+        <v>517</v>
       </c>
       <c r="B297" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="C297" t="s">
         <v>486</v>
@@ -17023,15 +17020,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>517</v>
-      </c>
-      <c r="B298" t="s">
-        <v>3322</v>
+        <v>259</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="C298" t="s">
-        <v>486</v>
+        <v>238</v>
       </c>
       <c r="D298" s="4" t="s">
         <v>356</v>
@@ -17039,19 +17036,19 @@
       <c r="F298" t="s">
         <v>371</v>
       </c>
-      <c r="G298" s="12" t="s">
+      <c r="G298" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>259</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>260</v>
+        <v>649</v>
+      </c>
+      <c r="B299" t="s">
+        <v>3143</v>
       </c>
       <c r="C299" t="s">
-        <v>238</v>
+        <v>486</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>356</v>
@@ -17059,19 +17056,19 @@
       <c r="F299" t="s">
         <v>371</v>
       </c>
-      <c r="G299" t="s">
+      <c r="G299" s="12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>649</v>
-      </c>
-      <c r="B300" t="s">
-        <v>3143</v>
+        <v>73</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="C300" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>356</v>
@@ -17079,16 +17076,16 @@
       <c r="F300" t="s">
         <v>371</v>
       </c>
-      <c r="G300" s="12" t="s">
-        <v>408</v>
+      <c r="G300" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -17100,18 +17097,18 @@
         <v>371</v>
       </c>
       <c r="G301" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>146</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>444</v>
+        <v>624</v>
+      </c>
+      <c r="B302" t="s">
+        <v>3145</v>
       </c>
       <c r="C302" t="s">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>356</v>
@@ -17119,19 +17116,19 @@
       <c r="F302" t="s">
         <v>371</v>
       </c>
-      <c r="G302" t="s">
+      <c r="G302" s="12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>624</v>
-      </c>
-      <c r="B303" t="s">
-        <v>3145</v>
+        <v>55</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C303" t="s">
-        <v>486</v>
+        <v>307</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>356</v>
@@ -17139,59 +17136,59 @@
       <c r="F303" t="s">
         <v>371</v>
       </c>
-      <c r="G303" s="12" t="s">
+      <c r="G303" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>55</v>
+        <v>234</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>328</v>
+        <v>235</v>
       </c>
       <c r="C304" t="s">
-        <v>307</v>
+        <v>152</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
+      </c>
+      <c r="E304" t="s">
+        <v>400</v>
       </c>
       <c r="F304" t="s">
         <v>371</v>
       </c>
       <c r="G304" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>234</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>235</v>
+        <v>879</v>
+      </c>
+      <c r="B305" t="s">
+        <v>3146</v>
       </c>
       <c r="C305" t="s">
-        <v>152</v>
+        <v>486</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E305" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="F305" t="s">
         <v>371</v>
       </c>
-      <c r="G305" t="s">
-        <v>402</v>
+      <c r="G305" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>879</v>
+        <v>1489</v>
       </c>
       <c r="B306" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="C306" t="s">
         <v>486</v>
@@ -17208,10 +17205,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1489</v>
+        <v>1283</v>
       </c>
       <c r="B307" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="C307" t="s">
         <v>486</v>
@@ -17228,10 +17225,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1283</v>
+        <v>1499</v>
       </c>
       <c r="B308" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="C308" t="s">
         <v>486</v>
@@ -17248,10 +17245,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1499</v>
+        <v>2004</v>
       </c>
       <c r="B309" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="C309" t="s">
         <v>486</v>
@@ -17268,13 +17265,13 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>2004</v>
-      </c>
-      <c r="B310" t="s">
-        <v>3150</v>
+        <v>75</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="C310" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>356</v>
@@ -17282,19 +17279,19 @@
       <c r="F310" t="s">
         <v>371</v>
       </c>
-      <c r="G310" s="12" t="s">
+      <c r="G310" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>75</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>445</v>
+        <v>1554</v>
+      </c>
+      <c r="B311" t="s">
+        <v>3153</v>
       </c>
       <c r="C311" t="s">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>356</v>
@@ -17302,16 +17299,16 @@
       <c r="F311" t="s">
         <v>371</v>
       </c>
-      <c r="G311" t="s">
+      <c r="G311" s="12" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1554</v>
+        <v>666</v>
       </c>
       <c r="B312" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="C312" t="s">
         <v>486</v>
@@ -17326,55 +17323,55 @@
         <v>408</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>666</v>
-      </c>
-      <c r="B313" t="s">
-        <v>3154</v>
+        <v>257</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="C313" t="s">
-        <v>486</v>
+        <v>238</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>356</v>
       </c>
+      <c r="E313" t="s">
+        <v>363</v>
+      </c>
       <c r="F313" t="s">
         <v>371</v>
       </c>
-      <c r="G313" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G313" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>257</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>258</v>
+        <v>655</v>
+      </c>
+      <c r="B314" t="s">
+        <v>3157</v>
       </c>
       <c r="C314" t="s">
-        <v>238</v>
+        <v>486</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="E314" t="s">
-        <v>363</v>
-      </c>
       <c r="F314" t="s">
         <v>371</v>
       </c>
-      <c r="G314" t="s">
-        <v>443</v>
+      <c r="G314" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>655</v>
+        <v>1038</v>
       </c>
       <c r="B315" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
       <c r="C315" t="s">
         <v>486</v>
@@ -17391,10 +17388,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1038</v>
+        <v>1529</v>
       </c>
       <c r="B316" t="s">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="C316" t="s">
         <v>486</v>
@@ -17411,10 +17408,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1529</v>
+        <v>737</v>
       </c>
       <c r="B317" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="C317" t="s">
         <v>486</v>
@@ -17431,10 +17428,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>737</v>
+        <v>1552</v>
       </c>
       <c r="B318" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="C318" t="s">
         <v>486</v>
@@ -17451,10 +17448,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1552</v>
+        <v>915</v>
       </c>
       <c r="B319" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="C319" t="s">
         <v>486</v>
@@ -17469,15 +17466,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>915</v>
-      </c>
-      <c r="B320" t="s">
-        <v>3164</v>
+        <v>129</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="C320" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>356</v>
@@ -17485,19 +17482,19 @@
       <c r="F320" t="s">
         <v>371</v>
       </c>
-      <c r="G320" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G320" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>129</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>446</v>
+        <v>1571</v>
+      </c>
+      <c r="B321" t="s">
+        <v>3165</v>
       </c>
       <c r="C321" t="s">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>356</v>
@@ -17505,62 +17502,62 @@
       <c r="F321" t="s">
         <v>371</v>
       </c>
-      <c r="G321" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G321" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B322" t="s">
-        <v>3165</v>
+        <v>274</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="C322" t="s">
-        <v>486</v>
+        <v>238</v>
       </c>
       <c r="D322" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E322" t="s">
+        <v>365</v>
+      </c>
+      <c r="F322" t="s">
+        <v>372</v>
+      </c>
+      <c r="G322" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>492</v>
+      </c>
+      <c r="B323" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C323" t="s">
+        <v>486</v>
+      </c>
+      <c r="D323" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F323" t="s">
         <v>371</v>
       </c>
-      <c r="G322" s="12" t="s">
+      <c r="G323" s="12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>274</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C323" t="s">
-        <v>238</v>
-      </c>
-      <c r="D323" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E323" t="s">
-        <v>365</v>
-      </c>
-      <c r="F323" t="s">
-        <v>372</v>
-      </c>
-      <c r="G323" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>492</v>
-      </c>
-      <c r="B324" t="s">
-        <v>3166</v>
+        <v>59</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="C324" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>356</v>
@@ -17568,19 +17565,19 @@
       <c r="F324" t="s">
         <v>371</v>
       </c>
-      <c r="G324" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G324" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>59</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>448</v>
+        <v>1353</v>
+      </c>
+      <c r="B325" t="s">
+        <v>3323</v>
       </c>
       <c r="C325" t="s">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>356</v>
@@ -17588,16 +17585,16 @@
       <c r="F325" t="s">
         <v>371</v>
       </c>
-      <c r="G325" t="s">
-        <v>415</v>
+      <c r="G325" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1353</v>
+        <v>848</v>
       </c>
       <c r="B326" t="s">
-        <v>3323</v>
+        <v>3167</v>
       </c>
       <c r="C326" t="s">
         <v>486</v>
@@ -17614,10 +17611,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>848</v>
+        <v>1585</v>
       </c>
       <c r="B327" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="C327" t="s">
         <v>486</v>
@@ -17634,10 +17631,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1585</v>
+        <v>1349</v>
       </c>
       <c r="B328" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="C328" t="s">
         <v>486</v>
@@ -17652,55 +17649,55 @@
         <v>408</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B329" t="s">
-        <v>3169</v>
+        <v>137</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="C329" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D329" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E329" t="s">
+        <v>364</v>
+      </c>
+      <c r="F329" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B330" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C330" t="s">
+        <v>486</v>
+      </c>
+      <c r="D330" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F329" t="s">
+      <c r="F330" t="s">
         <v>371</v>
       </c>
-      <c r="G329" s="12" t="s">
+      <c r="G330" s="12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>137</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C330" t="s">
-        <v>5</v>
-      </c>
-      <c r="D330" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E330" t="s">
-        <v>364</v>
-      </c>
-      <c r="F330" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>2327</v>
-      </c>
-      <c r="B331" t="s">
-        <v>3170</v>
+        <v>325</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="C331" t="s">
-        <v>486</v>
+        <v>307</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>356</v>
@@ -17708,19 +17705,19 @@
       <c r="F331" t="s">
         <v>371</v>
       </c>
-      <c r="G331" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="G331" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>325</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>326</v>
+        <v>2422</v>
+      </c>
+      <c r="B332" t="s">
+        <v>3171</v>
       </c>
       <c r="C332" t="s">
-        <v>307</v>
+        <v>486</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>356</v>
@@ -17728,16 +17725,16 @@
       <c r="F332" t="s">
         <v>371</v>
       </c>
-      <c r="G332" t="s">
-        <v>403</v>
+      <c r="G332" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>2422</v>
+        <v>487</v>
       </c>
       <c r="B333" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="C333" t="s">
         <v>486</v>
@@ -17754,10 +17751,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>487</v>
+        <v>1251</v>
       </c>
       <c r="B334" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="C334" t="s">
         <v>486</v>
@@ -17774,10 +17771,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1251</v>
+        <v>1589</v>
       </c>
       <c r="B335" t="s">
-        <v>3175</v>
+        <v>3177</v>
       </c>
       <c r="C335" t="s">
         <v>486</v>
@@ -17792,55 +17789,55 @@
         <v>408</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B336" t="s">
-        <v>3177</v>
+        <v>142</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C336" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D336" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E336" t="s">
+        <v>365</v>
+      </c>
+      <c r="F336" t="s">
+        <v>372</v>
+      </c>
+      <c r="G336" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B337" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C337" t="s">
+        <v>486</v>
+      </c>
+      <c r="D337" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F336" t="s">
+      <c r="F337" t="s">
         <v>371</v>
       </c>
-      <c r="G336" s="12" t="s">
+      <c r="G337" s="12" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" ht="119" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>142</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C337" t="s">
-        <v>5</v>
-      </c>
-      <c r="D337" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E337" t="s">
-        <v>365</v>
-      </c>
-      <c r="F337" t="s">
-        <v>372</v>
-      </c>
-      <c r="G337" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1594</v>
+        <v>2032</v>
       </c>
       <c r="B338" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="C338" t="s">
         <v>486</v>
@@ -17855,15 +17852,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>2032</v>
-      </c>
-      <c r="B339" t="s">
-        <v>3179</v>
+        <v>85</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>3415</v>
       </c>
       <c r="C339" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>356</v>
@@ -17871,19 +17868,19 @@
       <c r="F339" t="s">
         <v>371</v>
       </c>
-      <c r="G339" s="12" t="s">
+      <c r="G339" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>85</v>
+        <v>423</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>3416</v>
+        <v>424</v>
       </c>
       <c r="C340" t="s">
-        <v>5</v>
+        <v>380</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>356</v>
@@ -17892,18 +17889,24 @@
         <v>371</v>
       </c>
       <c r="G340" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+      <c r="H340" t="s">
+        <v>421</v>
+      </c>
+      <c r="I340" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>423</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>424</v>
+        <v>1400</v>
+      </c>
+      <c r="B341" t="s">
+        <v>3180</v>
       </c>
       <c r="C341" t="s">
-        <v>380</v>
+        <v>486</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>356</v>
@@ -17911,22 +17914,16 @@
       <c r="F341" t="s">
         <v>371</v>
       </c>
-      <c r="G341" t="s">
+      <c r="G341" s="12" t="s">
         <v>425</v>
-      </c>
-      <c r="H341" t="s">
-        <v>421</v>
-      </c>
-      <c r="I341" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1400</v>
+        <v>793</v>
       </c>
       <c r="B342" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="C342" t="s">
         <v>486</v>
@@ -17938,38 +17935,35 @@
         <v>371</v>
       </c>
       <c r="G342" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>793</v>
-      </c>
-      <c r="B343" t="s">
-        <v>3181</v>
+        <v>147</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C343" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F343" t="s">
-        <v>371</v>
-      </c>
-      <c r="G343" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="C344" t="s">
-        <v>5</v>
+        <v>238</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>357</v>
@@ -17978,32 +17972,35 @@
         <v>376</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>268</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>269</v>
+        <v>1093</v>
+      </c>
+      <c r="B345" t="s">
+        <v>3183</v>
       </c>
       <c r="C345" t="s">
-        <v>238</v>
+        <v>486</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F345" t="s">
-        <v>376</v>
+        <v>371</v>
+      </c>
+      <c r="G345" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B346" t="s">
-        <v>3183</v>
+        <v>324</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="C346" t="s">
-        <v>486</v>
+        <v>307</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>356</v>
@@ -18011,19 +18008,19 @@
       <c r="F346" t="s">
         <v>371</v>
       </c>
-      <c r="G346" s="12" t="s">
+      <c r="G346" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>324</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>451</v>
+        <v>255</v>
+      </c>
+      <c r="B347" t="s">
+        <v>3185</v>
       </c>
       <c r="C347" t="s">
-        <v>307</v>
+        <v>486</v>
       </c>
       <c r="D347" s="4" t="s">
         <v>356</v>
@@ -18031,59 +18028,59 @@
       <c r="F347" t="s">
         <v>371</v>
       </c>
-      <c r="G347" t="s">
+      <c r="G347" s="12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>255</v>
-      </c>
-      <c r="B348" t="s">
-        <v>3185</v>
+        <v>10</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>3374</v>
       </c>
       <c r="C348" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>356</v>
       </c>
+      <c r="E348" t="s">
+        <v>363</v>
+      </c>
       <c r="F348" t="s">
         <v>371</v>
       </c>
-      <c r="G348" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="G348" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>10</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>3374</v>
+        <v>7</v>
+      </c>
+      <c r="B349" t="s">
+        <v>3187</v>
       </c>
       <c r="C349" t="s">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="E349" t="s">
-        <v>363</v>
-      </c>
       <c r="F349" t="s">
         <v>371</v>
       </c>
-      <c r="G349" t="s">
-        <v>452</v>
+      <c r="G349" s="12" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>7</v>
+        <v>2425</v>
       </c>
       <c r="B350" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="C350" t="s">
         <v>486</v>
@@ -18095,18 +18092,18 @@
         <v>371</v>
       </c>
       <c r="G350" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>2425</v>
-      </c>
-      <c r="B351" t="s">
-        <v>3188</v>
+        <v>83</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>3416</v>
       </c>
       <c r="C351" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>356</v>
@@ -18114,19 +18111,19 @@
       <c r="F351" t="s">
         <v>371</v>
       </c>
-      <c r="G351" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="G351" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>3417</v>
+        <v>454</v>
       </c>
       <c r="C352" t="s">
-        <v>5</v>
+        <v>238</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>356</v>
@@ -18135,18 +18132,18 @@
         <v>371</v>
       </c>
       <c r="G352" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>253</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>454</v>
+        <v>2138</v>
+      </c>
+      <c r="B353" t="s">
+        <v>3189</v>
       </c>
       <c r="C353" t="s">
-        <v>238</v>
+        <v>486</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>356</v>
@@ -18154,16 +18151,16 @@
       <c r="F353" t="s">
         <v>371</v>
       </c>
-      <c r="G353" t="s">
-        <v>412</v>
+      <c r="G353" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>2138</v>
+        <v>1024</v>
       </c>
       <c r="B354" t="s">
-        <v>3189</v>
+        <v>3191</v>
       </c>
       <c r="C354" t="s">
         <v>486</v>
@@ -18180,10 +18177,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>1024</v>
+        <v>1889</v>
       </c>
       <c r="B355" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="C355" t="s">
         <v>486</v>
@@ -18200,10 +18197,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>1889</v>
+        <v>1505</v>
       </c>
       <c r="B356" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="C356" t="s">
         <v>486</v>
@@ -18220,10 +18217,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>1505</v>
+        <v>1668</v>
       </c>
       <c r="B357" t="s">
-        <v>3193</v>
+        <v>3196</v>
       </c>
       <c r="C357" t="s">
         <v>486</v>
@@ -18238,52 +18235,52 @@
         <v>408</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B358" t="s">
-        <v>3196</v>
+        <v>114</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C358" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D358" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F358" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B359" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C359" t="s">
+        <v>486</v>
+      </c>
+      <c r="D359" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F358" t="s">
+      <c r="F359" t="s">
         <v>371</v>
       </c>
-      <c r="G358" s="12" t="s">
+      <c r="G359" s="12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>114</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C359" t="s">
-        <v>5</v>
-      </c>
-      <c r="D359" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="F359" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>2456</v>
-      </c>
-      <c r="B360" t="s">
-        <v>3324</v>
+        <v>252</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>455</v>
       </c>
       <c r="C360" t="s">
-        <v>486</v>
+        <v>238</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>356</v>
@@ -18291,19 +18288,19 @@
       <c r="F360" t="s">
         <v>371</v>
       </c>
-      <c r="G360" s="12" t="s">
+      <c r="G360" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>252</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>455</v>
+        <v>1653</v>
+      </c>
+      <c r="B361" t="s">
+        <v>3197</v>
       </c>
       <c r="C361" t="s">
-        <v>238</v>
+        <v>486</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>356</v>
@@ -18311,59 +18308,59 @@
       <c r="F361" t="s">
         <v>371</v>
       </c>
-      <c r="G361" t="s">
+      <c r="G361" s="12" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B362" t="s">
-        <v>3197</v>
+        <v>388</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="C362" t="s">
-        <v>486</v>
+        <v>380</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>356</v>
       </c>
+      <c r="E362" t="s">
+        <v>365</v>
+      </c>
       <c r="F362" t="s">
         <v>371</v>
       </c>
-      <c r="G362" s="12" t="s">
-        <v>408</v>
+      <c r="G362" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>388</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>389</v>
+        <v>1083</v>
+      </c>
+      <c r="B363" t="s">
+        <v>3199</v>
       </c>
       <c r="C363" t="s">
-        <v>380</v>
+        <v>486</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="E363" t="s">
-        <v>365</v>
-      </c>
       <c r="F363" t="s">
         <v>371</v>
       </c>
-      <c r="G363" t="s">
-        <v>412</v>
+      <c r="G363" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>1083</v>
+        <v>2429</v>
       </c>
       <c r="B364" t="s">
-        <v>3199</v>
+        <v>3201</v>
       </c>
       <c r="C364" t="s">
         <v>486</v>
@@ -18378,15 +18375,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>2429</v>
-      </c>
-      <c r="B365" t="s">
-        <v>3201</v>
+        <v>72</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="C365" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>356</v>
@@ -18394,19 +18391,19 @@
       <c r="F365" t="s">
         <v>371</v>
       </c>
-      <c r="G365" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="G365" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>72</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>458</v>
+        <v>565</v>
+      </c>
+      <c r="B366" t="s">
+        <v>3204</v>
       </c>
       <c r="C366" t="s">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>356</v>
@@ -18414,16 +18411,16 @@
       <c r="F366" t="s">
         <v>371</v>
       </c>
-      <c r="G366" t="s">
-        <v>409</v>
+      <c r="G366" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>565</v>
+        <v>1144</v>
       </c>
       <c r="B367" t="s">
-        <v>3204</v>
+        <v>3206</v>
       </c>
       <c r="C367" t="s">
         <v>486</v>
@@ -18440,10 +18437,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>1144</v>
+        <v>857</v>
       </c>
       <c r="B368" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="C368" t="s">
         <v>486</v>
@@ -18458,15 +18455,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>857</v>
-      </c>
-      <c r="B369" t="s">
-        <v>3207</v>
+        <v>122</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>3417</v>
       </c>
       <c r="C369" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>356</v>
@@ -18474,19 +18471,19 @@
       <c r="F369" t="s">
         <v>371</v>
       </c>
-      <c r="G369" s="12" t="s">
+      <c r="G369" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>122</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>3418</v>
+        <v>912</v>
+      </c>
+      <c r="B370" t="s">
+        <v>3208</v>
       </c>
       <c r="C370" t="s">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>356</v>
@@ -18494,16 +18491,16 @@
       <c r="F370" t="s">
         <v>371</v>
       </c>
-      <c r="G370" t="s">
+      <c r="G370" s="12" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>912</v>
+        <v>2039</v>
       </c>
       <c r="B371" t="s">
-        <v>3208</v>
+        <v>3210</v>
       </c>
       <c r="C371" t="s">
         <v>486</v>
@@ -18520,10 +18517,10 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>2039</v>
+        <v>1261</v>
       </c>
       <c r="B372" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="C372" t="s">
         <v>486</v>
@@ -18540,10 +18537,10 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>1261</v>
+        <v>1195</v>
       </c>
       <c r="B373" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="C373" t="s">
         <v>486</v>
@@ -18560,10 +18557,10 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>1195</v>
+        <v>990</v>
       </c>
       <c r="B374" t="s">
-        <v>3212</v>
+        <v>3327</v>
       </c>
       <c r="C374" t="s">
         <v>486</v>
@@ -18580,10 +18577,10 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>990</v>
+        <v>2333</v>
       </c>
       <c r="B375" t="s">
-        <v>3327</v>
+        <v>3213</v>
       </c>
       <c r="C375" t="s">
         <v>486</v>
@@ -18600,10 +18597,10 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>2333</v>
+        <v>2283</v>
       </c>
       <c r="B376" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="C376" t="s">
         <v>486</v>
@@ -18620,13 +18617,13 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>2283</v>
-      </c>
-      <c r="B377" t="s">
-        <v>3214</v>
+        <v>397</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="C377" t="s">
-        <v>486</v>
+        <v>380</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>356</v>
@@ -18634,19 +18631,22 @@
       <c r="F377" t="s">
         <v>371</v>
       </c>
-      <c r="G377" s="12" t="s">
-        <v>408</v>
+      <c r="G377" t="s">
+        <v>437</v>
+      </c>
+      <c r="H377" s="10" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>397</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>398</v>
+        <v>1684</v>
+      </c>
+      <c r="B378" t="s">
+        <v>3216</v>
       </c>
       <c r="C378" t="s">
-        <v>380</v>
+        <v>486</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>356</v>
@@ -18654,19 +18654,16 @@
       <c r="F378" t="s">
         <v>371</v>
       </c>
-      <c r="G378" t="s">
-        <v>437</v>
-      </c>
-      <c r="H378" s="10" t="s">
-        <v>417</v>
+      <c r="G378" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1684</v>
+        <v>1286</v>
       </c>
       <c r="B379" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="C379" t="s">
         <v>486</v>
@@ -18683,10 +18680,10 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>1286</v>
+        <v>954</v>
       </c>
       <c r="B380" t="s">
-        <v>3217</v>
+        <v>3329</v>
       </c>
       <c r="C380" t="s">
         <v>486</v>
@@ -18703,10 +18700,10 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>954</v>
+        <v>2162</v>
       </c>
       <c r="B381" t="s">
-        <v>3329</v>
+        <v>3219</v>
       </c>
       <c r="C381" t="s">
         <v>486</v>
@@ -18721,32 +18718,29 @@
         <v>408</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>2162</v>
-      </c>
-      <c r="B382" t="s">
-        <v>3219</v>
+        <v>130</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C382" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F382" t="s">
-        <v>371</v>
-      </c>
-      <c r="G382" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -18758,32 +18752,35 @@
         <v>376</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>45</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>46</v>
+        <v>1882</v>
+      </c>
+      <c r="B384" t="s">
+        <v>3220</v>
       </c>
       <c r="C384" t="s">
+        <v>486</v>
+      </c>
+      <c r="D384" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F384" t="s">
+        <v>371</v>
+      </c>
+      <c r="G384" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>71</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C385" t="s">
         <v>5</v>
-      </c>
-      <c r="D384" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="F384" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
-        <v>1882</v>
-      </c>
-      <c r="B385" t="s">
-        <v>3220</v>
-      </c>
-      <c r="C385" t="s">
-        <v>486</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>356</v>
@@ -18791,19 +18788,19 @@
       <c r="F385" t="s">
         <v>371</v>
       </c>
-      <c r="G385" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="G385" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>71</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>459</v>
+        <v>1694</v>
+      </c>
+      <c r="B386" t="s">
+        <v>3221</v>
       </c>
       <c r="C386" t="s">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>356</v>
@@ -18811,16 +18808,16 @@
       <c r="F386" t="s">
         <v>371</v>
       </c>
-      <c r="G386" t="s">
-        <v>460</v>
+      <c r="G386" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>1694</v>
+        <v>1473</v>
       </c>
       <c r="B387" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="C387" t="s">
         <v>486</v>
@@ -18837,10 +18834,10 @@
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>1473</v>
+        <v>1666</v>
       </c>
       <c r="B388" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="C388" t="s">
         <v>486</v>
@@ -18857,10 +18854,10 @@
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>1666</v>
+        <v>575</v>
       </c>
       <c r="B389" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="C389" t="s">
         <v>486</v>
@@ -18875,15 +18872,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>575</v>
-      </c>
-      <c r="B390" t="s">
-        <v>3224</v>
+        <v>250</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C390" t="s">
-        <v>486</v>
+        <v>238</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>356</v>
@@ -18891,39 +18888,36 @@
       <c r="F390" t="s">
         <v>371</v>
       </c>
-      <c r="G390" s="12" t="s">
+      <c r="G390" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>251</v>
+        <v>399</v>
       </c>
       <c r="C391" t="s">
-        <v>238</v>
+        <v>5</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F391" t="s">
-        <v>371</v>
-      </c>
-      <c r="G391" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="C392" t="s">
-        <v>5</v>
+        <v>307</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>357</v>
@@ -18932,29 +18926,32 @@
         <v>376</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>329</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>330</v>
+        <v>2309</v>
+      </c>
+      <c r="B393" t="s">
+        <v>3225</v>
       </c>
       <c r="C393" t="s">
-        <v>307</v>
+        <v>486</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F393" t="s">
-        <v>376</v>
+        <v>371</v>
+      </c>
+      <c r="G393" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>2309</v>
+        <v>2229</v>
       </c>
       <c r="B394" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="C394" t="s">
         <v>486</v>
@@ -18969,98 +18966,98 @@
         <v>408</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>2229</v>
-      </c>
-      <c r="B395" t="s">
-        <v>3226</v>
+        <v>55</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C395" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F395" t="s">
-        <v>371</v>
-      </c>
-      <c r="G395" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>56</v>
+        <v>461</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F396" t="s">
+        <v>371</v>
+      </c>
+      <c r="G396" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>393</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C397" t="s">
+        <v>380</v>
+      </c>
+      <c r="D397" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E397" t="s">
+        <v>365</v>
+      </c>
+      <c r="F397" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
-        <v>26</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C397" t="s">
-        <v>5</v>
-      </c>
-      <c r="D397" s="4" t="s">
+      <c r="H397" t="s">
+        <v>386</v>
+      </c>
+      <c r="I397" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>249</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>3375</v>
+      </c>
+      <c r="C398" t="s">
+        <v>238</v>
+      </c>
+      <c r="D398" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F397" t="s">
+      <c r="F398" t="s">
         <v>371</v>
       </c>
-      <c r="G397" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
-        <v>393</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C398" t="s">
-        <v>380</v>
-      </c>
-      <c r="D398" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E398" t="s">
-        <v>365</v>
-      </c>
-      <c r="F398" t="s">
-        <v>376</v>
-      </c>
-      <c r="H398" t="s">
-        <v>386</v>
-      </c>
-      <c r="I398" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="G398" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>249</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>3375</v>
+        <v>1662</v>
+      </c>
+      <c r="B399" t="s">
+        <v>3228</v>
       </c>
       <c r="C399" t="s">
-        <v>238</v>
+        <v>486</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>356</v>
@@ -19068,16 +19065,16 @@
       <c r="F399" t="s">
         <v>371</v>
       </c>
-      <c r="G399" t="s">
-        <v>463</v>
+      <c r="G399" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>1662</v>
+        <v>1716</v>
       </c>
       <c r="B400" t="s">
-        <v>3228</v>
+        <v>3332</v>
       </c>
       <c r="C400" t="s">
         <v>486</v>
@@ -19094,10 +19091,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>1716</v>
+        <v>1963</v>
       </c>
       <c r="B401" t="s">
-        <v>3332</v>
+        <v>3230</v>
       </c>
       <c r="C401" t="s">
         <v>486</v>
@@ -19112,15 +19109,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>1963</v>
-      </c>
-      <c r="B402" t="s">
-        <v>3230</v>
+        <v>18</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>3418</v>
       </c>
       <c r="C402" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D402" s="4" t="s">
         <v>356</v>
@@ -19128,16 +19125,16 @@
       <c r="F402" t="s">
         <v>371</v>
       </c>
-      <c r="G402" s="12" t="s">
-        <v>408</v>
+      <c r="G402" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>3419</v>
+        <v>466</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -19149,18 +19146,18 @@
         <v>371</v>
       </c>
       <c r="G403" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>113</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>466</v>
+        <v>1735</v>
+      </c>
+      <c r="B404" t="s">
+        <v>3231</v>
       </c>
       <c r="C404" t="s">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>356</v>
@@ -19168,16 +19165,14 @@
       <c r="F404" t="s">
         <v>371</v>
       </c>
-      <c r="G404" t="s">
-        <v>467</v>
-      </c>
+      <c r="G404" s="12"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>1735</v>
+        <v>533</v>
       </c>
       <c r="B405" t="s">
-        <v>3231</v>
+        <v>3233</v>
       </c>
       <c r="C405" t="s">
         <v>486</v>
@@ -19188,51 +19183,53 @@
       <c r="F405" t="s">
         <v>371</v>
       </c>
-      <c r="G405" s="12"/>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G405" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>533</v>
-      </c>
-      <c r="B406" t="s">
-        <v>3233</v>
+        <v>109</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C406" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D406" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F406" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B407" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C407" t="s">
+        <v>486</v>
+      </c>
+      <c r="D407" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F406" t="s">
+      <c r="F407" t="s">
         <v>371</v>
       </c>
-      <c r="G406" s="12" t="s">
+      <c r="G407" s="12" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
-        <v>109</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C407" t="s">
-        <v>5</v>
-      </c>
-      <c r="D407" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="F407" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>2245</v>
+        <v>790</v>
       </c>
       <c r="B408" t="s">
-        <v>3236</v>
+        <v>3239</v>
       </c>
       <c r="C408" t="s">
         <v>486</v>
@@ -19249,13 +19246,13 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>790</v>
-      </c>
-      <c r="B409" t="s">
-        <v>3239</v>
+        <v>317</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="C409" t="s">
-        <v>486</v>
+        <v>307</v>
       </c>
       <c r="D409" s="4" t="s">
         <v>356</v>
@@ -19263,19 +19260,19 @@
       <c r="F409" t="s">
         <v>371</v>
       </c>
-      <c r="G409" s="12" t="s">
+      <c r="G409" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>317</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>468</v>
+        <v>2012</v>
+      </c>
+      <c r="B410" t="s">
+        <v>3240</v>
       </c>
       <c r="C410" t="s">
-        <v>307</v>
+        <v>486</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>356</v>
@@ -19283,16 +19280,16 @@
       <c r="F410" t="s">
         <v>371</v>
       </c>
-      <c r="G410" t="s">
+      <c r="G410" s="12" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>2012</v>
+        <v>947</v>
       </c>
       <c r="B411" t="s">
-        <v>3240</v>
+        <v>3242</v>
       </c>
       <c r="C411" t="s">
         <v>486</v>
@@ -19304,15 +19301,15 @@
         <v>371</v>
       </c>
       <c r="G411" s="12" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>947</v>
+        <v>1233</v>
       </c>
       <c r="B412" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="C412" t="s">
         <v>486</v>
@@ -19324,15 +19321,15 @@
         <v>371</v>
       </c>
       <c r="G412" s="12" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>1233</v>
+        <v>2222</v>
       </c>
       <c r="B413" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="C413" t="s">
         <v>486</v>
@@ -19347,138 +19344,138 @@
         <v>408</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>2222</v>
-      </c>
-      <c r="B414" t="s">
-        <v>3244</v>
+        <v>322</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="C414" t="s">
-        <v>486</v>
+        <v>307</v>
       </c>
       <c r="D414" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F414" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B415" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C415" t="s">
+        <v>486</v>
+      </c>
+      <c r="D415" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F414" t="s">
+      <c r="F415" t="s">
         <v>371</v>
       </c>
-      <c r="G414" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
-        <v>322</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C415" t="s">
-        <v>307</v>
-      </c>
-      <c r="D415" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="F415" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G415" s="12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B416" t="s">
-        <v>3104</v>
+        <v>42</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="C416" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
+      </c>
+      <c r="E416" t="s">
+        <v>457</v>
       </c>
       <c r="F416" t="s">
         <v>371</v>
       </c>
-      <c r="G416" s="12" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G416" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="C417" t="s">
-        <v>5</v>
+        <v>238</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E417" t="s">
-        <v>457</v>
+        <v>356</v>
       </c>
       <c r="F417" t="s">
         <v>371</v>
       </c>
       <c r="G417" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>244</v>
+        <v>107</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>469</v>
+        <v>108</v>
       </c>
       <c r="C418" t="s">
-        <v>238</v>
+        <v>5</v>
       </c>
       <c r="D418" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E418" t="s">
+        <v>365</v>
+      </c>
+      <c r="F418" t="s">
+        <v>372</v>
+      </c>
+      <c r="G418" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>590</v>
+      </c>
+      <c r="B419" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C419" t="s">
+        <v>486</v>
+      </c>
+      <c r="D419" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F418" t="s">
+      <c r="F419" t="s">
         <v>371</v>
       </c>
-      <c r="G418" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
-        <v>107</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C419" t="s">
+      <c r="G419" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>76</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C420" t="s">
         <v>5</v>
-      </c>
-      <c r="D419" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E419" t="s">
-        <v>365</v>
-      </c>
-      <c r="F419" t="s">
-        <v>372</v>
-      </c>
-      <c r="G419" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
-        <v>590</v>
-      </c>
-      <c r="B420" t="s">
-        <v>3333</v>
-      </c>
-      <c r="C420" t="s">
-        <v>486</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>356</v>
@@ -19486,36 +19483,33 @@
       <c r="F420" t="s">
         <v>371</v>
       </c>
-      <c r="G420" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="G420" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>3420</v>
+        <v>125</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F421" t="s">
-        <v>371</v>
-      </c>
-      <c r="G421" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -19527,66 +19521,69 @@
         <v>376</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>37</v>
+        <v>471</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F423" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="G423" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>471</v>
+        <v>87</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
       </c>
       <c r="D424" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F424" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>12</v>
+      </c>
+      <c r="B425" t="s">
+        <v>3248</v>
+      </c>
+      <c r="C425" t="s">
+        <v>486</v>
+      </c>
+      <c r="D425" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F424" t="s">
+      <c r="F425" t="s">
         <v>371</v>
       </c>
-      <c r="G424" t="s">
+      <c r="G425" s="12" t="s">
         <v>425</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" ht="153" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
-        <v>86</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C425" t="s">
-        <v>5</v>
-      </c>
-      <c r="D425" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="F425" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>12</v>
+        <v>2148</v>
       </c>
       <c r="B426" t="s">
-        <v>3248</v>
+        <v>3250</v>
       </c>
       <c r="C426" t="s">
         <v>486</v>
@@ -19598,38 +19595,35 @@
         <v>371</v>
       </c>
       <c r="G426" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>2148</v>
-      </c>
-      <c r="B427" t="s">
-        <v>3250</v>
+        <v>320</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="C427" t="s">
-        <v>486</v>
+        <v>307</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F427" t="s">
-        <v>371</v>
-      </c>
-      <c r="G427" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>320</v>
+        <v>49</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>321</v>
+        <v>50</v>
       </c>
       <c r="C428" t="s">
-        <v>307</v>
+        <v>5</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>357</v>
@@ -19638,15 +19632,15 @@
         <v>376</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="C429" t="s">
-        <v>5</v>
+        <v>238</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>357</v>
@@ -19657,30 +19651,33 @@
     </row>
     <row r="430" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>247</v>
+        <v>82</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>248</v>
+        <v>472</v>
       </c>
       <c r="C430" t="s">
-        <v>238</v>
+        <v>5</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F430" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="G430" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C431" t="s">
-        <v>5</v>
+        <v>307</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>356</v>
@@ -19689,35 +19686,32 @@
         <v>371</v>
       </c>
       <c r="G431" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>473</v>
+        <v>319</v>
       </c>
       <c r="C432" t="s">
         <v>307</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F432" t="s">
-        <v>371</v>
-      </c>
-      <c r="G432" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
     </row>
     <row r="433" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C433" t="s">
         <v>307</v>
@@ -19729,15 +19723,15 @@
         <v>376</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>316</v>
+        <v>246</v>
       </c>
       <c r="C434" t="s">
-        <v>307</v>
+        <v>238</v>
       </c>
       <c r="D434" s="4" t="s">
         <v>357</v>
@@ -19748,30 +19742,33 @@
     </row>
     <row r="435" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>246</v>
+        <v>474</v>
       </c>
       <c r="C435" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F435" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="436" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="G435" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>313</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>474</v>
+        <v>1398</v>
+      </c>
+      <c r="B436" t="s">
+        <v>3254</v>
       </c>
       <c r="C436" t="s">
-        <v>307</v>
+        <v>486</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>356</v>
@@ -19779,16 +19776,16 @@
       <c r="F436" t="s">
         <v>371</v>
       </c>
-      <c r="G436" t="s">
+      <c r="G436" s="12" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>1398</v>
+        <v>1807</v>
       </c>
       <c r="B437" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="C437" t="s">
         <v>486</v>
@@ -19803,15 +19800,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>1807</v>
-      </c>
-      <c r="B438" t="s">
-        <v>3255</v>
+        <v>243</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="C438" t="s">
-        <v>486</v>
+        <v>238</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>356</v>
@@ -19819,19 +19816,19 @@
       <c r="F438" t="s">
         <v>371</v>
       </c>
-      <c r="G438" s="12" t="s">
+      <c r="G438" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>243</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>475</v>
+        <v>1818</v>
+      </c>
+      <c r="B439" t="s">
+        <v>3256</v>
       </c>
       <c r="C439" t="s">
-        <v>238</v>
+        <v>486</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>356</v>
@@ -19839,16 +19836,16 @@
       <c r="F439" t="s">
         <v>371</v>
       </c>
-      <c r="G439" t="s">
+      <c r="G439" s="12" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>1818</v>
+        <v>2195</v>
       </c>
       <c r="B440" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="C440" t="s">
         <v>486</v>
@@ -19865,10 +19862,10 @@
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>2195</v>
+        <v>242</v>
       </c>
       <c r="B441" t="s">
-        <v>3257</v>
+        <v>3336</v>
       </c>
       <c r="C441" t="s">
         <v>486</v>
@@ -19883,81 +19880,81 @@
         <v>408</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>242</v>
-      </c>
-      <c r="B442" t="s">
-        <v>3336</v>
+        <v>311</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="C442" t="s">
-        <v>486</v>
+        <v>307</v>
       </c>
       <c r="D442" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F442" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>390</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C443" t="s">
+        <v>380</v>
+      </c>
+      <c r="D443" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F442" t="s">
+      <c r="E443" t="s">
+        <v>362</v>
+      </c>
+      <c r="F443" t="s">
         <v>371</v>
       </c>
-      <c r="G442" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="443" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
-        <v>311</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C443" t="s">
+      <c r="G443" t="s">
+        <v>447</v>
+      </c>
+      <c r="H443" t="s">
+        <v>386</v>
+      </c>
+      <c r="I443" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>310</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C444" t="s">
         <v>307</v>
-      </c>
-      <c r="D443" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="F443" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A444" t="s">
-        <v>390</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C444" t="s">
-        <v>380</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="E444" t="s">
-        <v>362</v>
-      </c>
       <c r="F444" t="s">
         <v>371</v>
       </c>
       <c r="G444" t="s">
         <v>447</v>
       </c>
-      <c r="H444" t="s">
-        <v>386</v>
-      </c>
-      <c r="I444" t="s">
-        <v>387</v>
-      </c>
     </row>
     <row r="445" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>310</v>
+        <v>32</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C445" t="s">
-        <v>307</v>
+        <v>5</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>356</v>
@@ -19966,18 +19963,18 @@
         <v>371</v>
       </c>
       <c r="G445" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="446" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>32</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>479</v>
+        <v>1834</v>
+      </c>
+      <c r="B446" t="s">
+        <v>3337</v>
       </c>
       <c r="C446" t="s">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>356</v>
@@ -19985,36 +19982,33 @@
       <c r="F446" t="s">
         <v>371</v>
       </c>
-      <c r="G446" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G446" s="12" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>1834</v>
-      </c>
-      <c r="B447" t="s">
-        <v>3337</v>
+        <v>308</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="C447" t="s">
-        <v>486</v>
+        <v>307</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F447" t="s">
-        <v>371</v>
-      </c>
-      <c r="G447" s="12" t="s">
-        <v>3359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="448" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C448" t="s">
         <v>307</v>
@@ -20026,15 +20020,15 @@
         <v>376</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>305</v>
+        <v>240</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>306</v>
+        <v>241</v>
       </c>
       <c r="C449" t="s">
-        <v>307</v>
+        <v>238</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>357</v>
@@ -20043,47 +20037,30 @@
         <v>376</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>241</v>
+        <v>480</v>
       </c>
       <c r="C450" t="s">
         <v>238</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F450" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
-        <v>239</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C451" t="s">
-        <v>238</v>
-      </c>
-      <c r="D451" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="F451" t="s">
         <v>371</v>
       </c>
-      <c r="G451" t="s">
+      <c r="G450" t="s">
         <v>425</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G451" xr:uid="{6299021A-12BB-9548-85CA-E3645404A9C9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J451">
-    <sortCondition ref="A1:A451"/>
+  <autoFilter ref="G1:G450" xr:uid="{6299021A-12BB-9548-85CA-E3645404A9C9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J450">
+    <sortCondition ref="A1:A450"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="7" priority="3"/>
@@ -20108,7 +20085,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H236" r:id="rId1" xr:uid="{E12BC92A-E647-6946-A7CD-01AE4BBDA537}"/>
-    <hyperlink ref="H378" r:id="rId2" xr:uid="{20A0E3C2-028C-6E4D-86D8-2E8D2B819A10}"/>
+    <hyperlink ref="H377" r:id="rId2" xr:uid="{20A0E3C2-028C-6E4D-86D8-2E8D2B819A10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
